--- a/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,166 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>24300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>254300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>78600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>474400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>202300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>97400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>58700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,19 +902,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-66500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -889,16 +929,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-28800</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-86500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5200</v>
+        <v>270400</v>
       </c>
       <c r="E17" s="3">
-        <v>4000</v>
+        <v>698400</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>95700</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>556000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>264800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>129000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>29500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-246100</v>
       </c>
       <c r="E18" s="3">
-        <v>-4000</v>
+        <v>-684400</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-88000</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-540900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-27900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,37 +1073,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-58500</v>
       </c>
       <c r="E20" s="3">
-        <v>23100</v>
+        <v>460700</v>
       </c>
       <c r="F20" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-21600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>75500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,66 +1139,84 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26400</v>
+        <v>-306000</v>
       </c>
       <c r="E23" s="3">
-        <v>19000</v>
+        <v>-225200</v>
       </c>
       <c r="F23" s="3">
-        <v>-10700</v>
+        <v>-101000</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-563200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-275800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-6800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1132,28 +1224,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26400</v>
+        <v>-306100</v>
       </c>
       <c r="E26" s="3">
-        <v>19000</v>
+        <v>-225600</v>
       </c>
       <c r="F26" s="3">
-        <v>-10700</v>
+        <v>-101100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-563200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-275600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26400</v>
+        <v>-284500</v>
       </c>
       <c r="E27" s="3">
-        <v>19000</v>
+        <v>-208500</v>
       </c>
       <c r="F27" s="3">
-        <v>-10700</v>
+        <v>-82200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-509600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>58500</v>
       </c>
       <c r="E32" s="3">
-        <v>-23100</v>
+        <v>-460700</v>
       </c>
       <c r="F32" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>21600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26400</v>
+        <v>-284500</v>
       </c>
       <c r="E33" s="3">
-        <v>19000</v>
+        <v>-208500</v>
       </c>
       <c r="F33" s="3">
-        <v>-10700</v>
+        <v>-82200</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-509600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26400</v>
+        <v>-284500</v>
       </c>
       <c r="E35" s="3">
-        <v>19000</v>
+        <v>-208500</v>
       </c>
       <c r="F35" s="3">
-        <v>-10700</v>
+        <v>-82200</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-509600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,22 +1703,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>2214300</v>
       </c>
       <c r="E41" s="3">
-        <v>1500</v>
+        <v>2497300</v>
       </c>
       <c r="F41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
+        <v>1996700</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,37 +1769,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>5400</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,22 +1839,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>61700</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>46100</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>55500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,22 +1874,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>2287500</v>
       </c>
       <c r="E46" s="3">
-        <v>1700</v>
+        <v>2555800</v>
       </c>
       <c r="F46" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
+        <v>2057600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,19 +1909,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>410800</v>
+        <v>398700</v>
       </c>
       <c r="E47" s="3">
-        <v>410800</v>
+        <v>436800</v>
       </c>
       <c r="F47" s="3">
-        <v>410800</v>
+        <v>280900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1734,37 +1944,49 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>83300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>80100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>80700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,22 +2084,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>29800</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>30300</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
+        <v>35500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,22 +2154,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>412100</v>
+        <v>2799400</v>
       </c>
       <c r="E54" s="3">
-        <v>412500</v>
+        <v>3102900</v>
       </c>
       <c r="F54" s="3">
-        <v>412800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
+        <v>2454700</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2223,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>24400</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>77200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,51 +2254,63 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20100</v>
+        <v>136400</v>
       </c>
       <c r="E59" s="3">
-        <v>18500</v>
+        <v>226300</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
+        <v>194100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2324,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23400</v>
+        <v>160700</v>
       </c>
       <c r="E60" s="3">
-        <v>18600</v>
+        <v>303400</v>
       </c>
       <c r="F60" s="3">
-        <v>14900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
+        <v>209200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,19 +2359,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>204000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>199900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>186400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2108,19 +2394,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47400</v>
+        <v>164900</v>
       </c>
       <c r="E62" s="3">
-        <v>26100</v>
+        <v>148700</v>
       </c>
       <c r="F62" s="3">
-        <v>49100</v>
+        <v>79400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2534,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70700</v>
+        <v>933700</v>
       </c>
       <c r="E66" s="3">
-        <v>44700</v>
+        <v>1064900</v>
       </c>
       <c r="F66" s="3">
-        <v>64000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
+        <v>731600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2724,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18100</v>
+        <v>-2493700</v>
       </c>
       <c r="E72" s="3">
-        <v>5000</v>
+        <v>-2209100</v>
       </c>
       <c r="F72" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
+        <v>-2000600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2864,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>341400</v>
+        <v>1865700</v>
       </c>
       <c r="E76" s="3">
-        <v>367800</v>
+        <v>2038000</v>
       </c>
       <c r="F76" s="3">
-        <v>348800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
+        <v>1723100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26400</v>
+        <v>-284500</v>
       </c>
       <c r="E81" s="3">
-        <v>19000</v>
+        <v>-208500</v>
       </c>
       <c r="F81" s="3">
-        <v>-10700</v>
+        <v>-82200</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-509600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-268500</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-120600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-236900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-111200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>317400</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-25600</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-8400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>303900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>98700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>176000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>181100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-283000</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>500700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-236500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>44300</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>ROIV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,192 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F8" s="3">
         <v>24300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>14000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>700</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F10" s="3">
         <v>22900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>14600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +864,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>136600</v>
+      </c>
+      <c r="F12" s="3">
         <v>153500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>254300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>78600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>474400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>202300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>97400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>58700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,43 +942,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>-5000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-66500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-28800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-86500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F17" s="3">
         <v>270400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>698400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>95700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>556000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>264800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>129000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-282300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-246100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-684400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-88000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-540900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-127700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,48 +1141,56 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-58500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>460700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-21600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-16100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>75500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>21900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-346500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1145,113 +1219,137 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-349800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-291500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-306000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-225200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-101000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-563200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-275800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-52800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-353800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-291300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-306100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-225600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-101100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-563200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-275600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-53500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-270100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-284500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-208500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-82200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-509600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-261000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-35400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1629,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F32" s="3">
         <v>58500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-460700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>21600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>16100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-75500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-21900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-270100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-284500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-208500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-82200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-509600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-261000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-270100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-284500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-208500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-82200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-509600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-261000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1877,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1942200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2060400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2214300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2497300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1996700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1914,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,43 +1955,55 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>11500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +2037,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86100</v>
+      </c>
+      <c r="F45" s="3">
         <v>61700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>46100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>55500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +2078,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2039400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2146500</v>
+      </c>
+      <c r="F46" s="3">
         <v>2287500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2555800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2057600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,26 +2119,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>325800</v>
+      </c>
+      <c r="F47" s="3">
         <v>398700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>436800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>280900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,66 +2160,78 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F48" s="3">
         <v>83300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>80100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>80700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>145400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2020,8 +2242,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2324,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F52" s="3">
         <v>29800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>30300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>35500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2406,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2585100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2799400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3102900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2454700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2485,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F57" s="3">
         <v>24400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>77200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,61 +2522,73 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+        <v>33300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>149800</v>
+      </c>
+      <c r="F59" s="3">
         <v>136400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>226300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>194100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2604,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>328900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>184400</v>
+      </c>
+      <c r="F60" s="3">
         <v>160700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>303400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>209200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2645,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>383700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F61" s="3">
         <v>204000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>199900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>186400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,26 +2686,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>129300</v>
+      </c>
+      <c r="F62" s="3">
         <v>164900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>148700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>79400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2727,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2850,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1216300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>928200</v>
+      </c>
+      <c r="F66" s="3">
         <v>933700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1064900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>731600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +3072,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3095500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2763700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2493700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2209100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2000600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3236,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1384100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1656900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1865700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2038000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1723100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-270100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-284500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-208500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-82200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-509600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-261000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3463,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-268500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-120600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-141200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-106100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-236900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-98000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-111200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3730,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3849,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>317400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>303900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>10200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>98700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>176000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>181100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-152100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-283000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-133300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-236500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>76000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>44300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>ROIV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,217 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>14000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +891,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>132000</v>
+      </c>
+      <c r="F12" s="3">
         <v>135800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>136600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>153500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>254300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>78600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>474400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>202300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>97400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>58700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,49 +981,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-12500</v>
       </c>
       <c r="E14" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-66500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-28800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-86500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>382600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>276500</v>
+      </c>
+      <c r="F17" s="3">
         <v>286600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>271000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>270400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>698400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>95700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>556000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>264800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>129000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>29500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-365500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-282300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-261800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-246100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-684400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-88000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-540900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-127700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-27900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,61 +1208,69 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-64800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-28200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-58500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>460700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-10500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-21600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>75500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>21900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-368500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-298400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-346500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,131 +1298,155 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-382100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-313800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-349800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-291500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-306000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-225200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-101000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-563200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-275800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-52800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-384900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-315900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-353800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-291300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-306100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-225600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-101100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-563200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-275600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-53500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-291600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-331800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-270100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-284500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-208500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-82200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-509600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-261000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-35400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1768,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F32" s="3">
         <v>64800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>28200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>58500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-460700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>10500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>21600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-75500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-21900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-291600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-331800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-270100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-284500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-208500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-82200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-509600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-261000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-35400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-291600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-331800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-270100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-284500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-208500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-82200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-509600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-261000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-35400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +2050,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1527400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1942200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2060400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2214300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2497300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1996700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,49 +2140,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="D43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>11500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2234,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>88500</v>
+      </c>
+      <c r="F45" s="3">
         <v>97200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>86100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>61700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>46100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>55500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2281,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1646200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2039400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2146500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2287500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2555800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2057600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,32 +2328,38 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>246600</v>
+      </c>
+      <c r="F47" s="3">
         <v>301300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>325800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>398700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>436800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>280900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,61 +2375,73 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>92300</v>
+      </c>
+      <c r="F48" s="3">
         <v>91100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>86900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>83300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>80100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>80700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>140300</v>
+      </c>
+      <c r="F49" s="3">
         <v>145400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,11 +2454,11 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2248,8 +2469,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2563,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F52" s="3">
         <v>23100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>25800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>29800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>30300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>35500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2657,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2215500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2585100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2799400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3102900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2454700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2746,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F57" s="3">
         <v>161300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>77200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>15000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,20 +2789,26 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F58" s="3">
         <v>33300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,47 +2821,53 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>153600</v>
+      </c>
+      <c r="F59" s="3">
         <v>134300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>149800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>136400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>226300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>194100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2883,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>230700</v>
+      </c>
+      <c r="F60" s="3">
         <v>328900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>184400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>160700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>303400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>209200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,32 +2930,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>375100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>376100</v>
+      </c>
+      <c r="F61" s="3">
         <v>383700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>210000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>204000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>199900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>186400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,32 +2977,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>94600</v>
+      </c>
+      <c r="F62" s="3">
         <v>109900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>129300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>164900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>148700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>79400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3165,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1247400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1216300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>928200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>933700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1064900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>731600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3419,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3739100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3387100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3095500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2763700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2493700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2209100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2000600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3607,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>955500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1160600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1384100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1656900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1865700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2038000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1723100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-291600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-331800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-270100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-284500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-208500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-82200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-509600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-261000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-35400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,31 +3823,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3469,8 +3866,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-222600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-189600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-252100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-147500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-268500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-120600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-141200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-106100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-236900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-98000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-111200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>317400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F100" s="3">
         <v>142000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>303900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>98700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>176000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>181100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-343800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-117600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-152100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-283000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-133300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-236500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>76000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>44300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>ROIV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,243 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>61300</v>
+      </c>
+      <c r="F8" s="3">
         <v>17100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>24300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>700</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F10" s="3">
         <v>13500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>22900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>14600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +919,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>623000</v>
+      </c>
+      <c r="F12" s="3">
         <v>223300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>132000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>135800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>136600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>153500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>254300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>78600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>474400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>202300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>97400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>58700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,55 +1021,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-12500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-16800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-66500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-28800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-86500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1149,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1207300</v>
+      </c>
+      <c r="F17" s="3">
         <v>382600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>276500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>286600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>271000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>270400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>698400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>95700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>556000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>264800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>129000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>29500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-276400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1146000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-365500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-264000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-282300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-261800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-246100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-684400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-88000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-540900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-127700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-27900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,73 +1276,81 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-41400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-64800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-28200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-58500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>460700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-21600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-16100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>75500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>21900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-311300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1178000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-368500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-298400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-346500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,149 +1378,173 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-326100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1224800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-382100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-313800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-349800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-291500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-306000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-225200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-101000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-563200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-275800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-52800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-327800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1230000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-384900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-315900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-353800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-291300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-306100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-225600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-101100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-563200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-275600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-53500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1123600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-352000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-291600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-331800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-270100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-284500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-208500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-82200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-509600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-261000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-35400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,31 +1749,37 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>114600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1680,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1908,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>41400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>64800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>28200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>58500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-460700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>21600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>16100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-75500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-21900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1009000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-352000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-291600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-331800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-270100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-284500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-208500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-82200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-509600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-261000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-35400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1009000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-352000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-291600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-331800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-270100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-284500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-208500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-82200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-509600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-261000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-35400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2224,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1434100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1676800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1527400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1599000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1942200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2060400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2214300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2497300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1996700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2273,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,78 +2326,90 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F43" s="3">
         <v>29500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>11500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2240,38 +2432,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86300</v>
+      </c>
+      <c r="F45" s="3">
         <v>89300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>88500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>97200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>86100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>61700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>46100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>55500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2485,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1561200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1798600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1646200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1714900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2039400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2146500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2287500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2555800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2057600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,38 +2538,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>304300</v>
+      </c>
+      <c r="F47" s="3">
         <v>272500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>246600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>301300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>325800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>398700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>436800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>280900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,73 +2591,85 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91900</v>
+        <v>87900</v>
       </c>
       <c r="E48" s="3">
         <v>92300</v>
       </c>
       <c r="F48" s="3">
+        <v>91900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>92300</v>
+      </c>
+      <c r="H48" s="3">
         <v>91100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>86900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>83300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>80100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>80700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F49" s="3">
         <v>146100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>140300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>145400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,11 +2682,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2475,8 +2697,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2803,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F52" s="3">
         <v>46200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>21500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>23100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>25800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>29800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>30300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>35500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2856,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2909,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2136600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2389600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2203000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2215500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2585100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2799400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3102900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2454700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2962,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +3008,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F57" s="3">
         <v>48000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>161300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>24400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>77200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,26 +3057,32 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F58" s="3">
         <v>37700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>35800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>33300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2827,53 +3095,59 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>193900</v>
+      </c>
+      <c r="F59" s="3">
         <v>158500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>153600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>134300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>149800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>136400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>226300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>194100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3163,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>272400</v>
+      </c>
+      <c r="F60" s="3">
         <v>244300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>230700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>328900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>184400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>160700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>303400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>209200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,38 +3216,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>385100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>375500</v>
+      </c>
+      <c r="F61" s="3">
         <v>375100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>376100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>383700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>210000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>204000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>199900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>186400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3269,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>134100</v>
+      </c>
+      <c r="F62" s="3">
         <v>156400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>94600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>109900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>129300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>164900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>148700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>79400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3322,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3481,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1231800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1247400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1054900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1216300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>928200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>933700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1064900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>731600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3534,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3767,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4064600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3772800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3739100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3387100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3095500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2763700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2493700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2209100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2000600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3820,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3979,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>910700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1157800</v>
+      </c>
+      <c r="F76" s="3">
         <v>955500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1160600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1384100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1656900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1865700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2038000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1723100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4032,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1009000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-352000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-291600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-331800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-270100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-284500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-208500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-82200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-509600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-261000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-35400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,20 +4221,22 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,11 +4249,11 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3872,8 +4270,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-249900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-843400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-222600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-189600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-252100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-147500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-268500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-120600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-141200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-106100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-236900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-98000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-111200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4613,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4768,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-146900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>317400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-25600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,78 +5054,90 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>499500</v>
+      </c>
+      <c r="F100" s="3">
         <v>154500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>142000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>303900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>98700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>176000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>181100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4662,51 +5160,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-242500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-381900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-71600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-343800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-117600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-152100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-283000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-133300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-236500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>76000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>44300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROIV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>ROIV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E8" s="3">
         <v>21600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>61300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3600</v>
       </c>
       <c r="G9" s="3">
         <v>3600</v>
       </c>
       <c r="H9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E10" s="3">
         <v>17400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>48200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E12" s="3">
         <v>137600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>623000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>223300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>132000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>135800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>136600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>153500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>254300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>474400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>202300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58700</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-29300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-12500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-16800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-5000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>-66500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-28800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-86500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E17" s="3">
         <v>298000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1207300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>382600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>276500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>286600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>271000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>270400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>698400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>556000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>264800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>129000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-259100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-276400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1146000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-365500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-264000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-282300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-261800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-246100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-684400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-88000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-540900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-127700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,82 +1311,86 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-40700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-50800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-58500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>460700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>75500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-312500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-311300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1178000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-368500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-298400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-346500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,167 +1421,179 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1500</v>
       </c>
       <c r="J22" s="3">
         <v>1500</v>
       </c>
       <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-327400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-326100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1224800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-382100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-313800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-349800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-291500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-306000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-225200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-101000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-563200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-275800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-52800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-331100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-327800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1230000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-384900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-315900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-353800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-291300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-306100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-225600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-101100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-563200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-275600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-53500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-291800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1123600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-352000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-291600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-331800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-270100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-284500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-208500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-82200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-509600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-261000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,20 +1813,23 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>114600</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1842,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E32" s="3">
         <v>40700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>50800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>58500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-460700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-75500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-291800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1009000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-352000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-291600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-331800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-270100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-284500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-208500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-82200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-509600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-261000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-291800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1009000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-352000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-291600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-331800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-270100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-284500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-208500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-82200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-509600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-261000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1408200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1434100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1676800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1527400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1599000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1942200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2060400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2214300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2497300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1996700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E43" s="3">
         <v>39900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>11500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,8 +2469,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2385,20 +2478,23 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2507,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E45" s="3">
         <v>82900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>89300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>97200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1551600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1561200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1798600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1646200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1714900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2039400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2146500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2287500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2555800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2057600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,41 +2646,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E47" s="3">
         <v>296200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>304300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>272500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>246600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>301300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>325800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>398700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>436800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>280900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E48" s="3">
         <v>87900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>92300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>91900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>92300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>91100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,8 +2749,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2650,29 +2758,32 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E49" s="3">
         <v>145000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>144900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>146100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>140300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,8 +2799,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E52" s="3">
         <v>46300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2065500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2136600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2389600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2203000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2215500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2585100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2799400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3102900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2454700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E57" s="3">
         <v>50000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>161300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,29 +3194,32 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E58" s="3">
         <v>44400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>40700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>35800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,14 +3235,14 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E59" s="3">
         <v>150600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>193900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>158500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>153600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>134300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>149800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>136400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>194100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>265500</v>
+      </c>
+      <c r="E60" s="3">
         <v>245000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>272400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>244300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>230700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>328900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>184400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>160700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>303400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>209200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3362,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E61" s="3">
         <v>385100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>375500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>375100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>376100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>383700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>210000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>204000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>199900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>186400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E62" s="3">
         <v>172400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>94600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>109900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>129300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>164900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>148700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1225900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1231800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1247400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1054900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1216300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>928200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>933700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1064900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>731600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4368900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4064600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3772800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3739100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3387100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3095500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2763700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2493700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2209100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>948500</v>
+      </c>
+      <c r="E76" s="3">
         <v>910700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1157800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>955500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1160600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1384100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1656900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1865700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2038000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1723100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-291800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1009000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-352000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-291600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-331800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-270100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-284500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-208500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-82200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-509600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-261000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,23 +4421,24 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4454,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-249900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-843400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-222600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-189600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-252100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-147500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-268500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-120600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-141200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-106100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-236900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-98000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>317400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,73 +5303,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E100" s="3">
         <v>7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>499500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>154500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>142000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>303900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>98700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>176000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>181100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5139,8 +5388,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-242500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-381900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-71600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-343800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-152100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-283000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-133300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-236500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>76000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
